--- a/respuestas/encuesta1/1_.xlsx
+++ b/respuestas/encuesta1/1_.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G6" s="2" t="n"/>
@@ -596,7 +596,7 @@
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F8" s="10" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" s="11" t="inlineStr"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/respuestas/encuesta1/1_.xlsx
+++ b/respuestas/encuesta1/1_.xlsx
@@ -509,7 +509,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="20.81640625" customWidth="1" style="1" min="1" max="1"/>
     <col hidden="1" width="25.7265625" customWidth="1" style="1" min="2" max="2"/>
@@ -543,7 +543,7 @@
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F8" s="10" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F9" s="11" t="inlineStr"/>
@@ -684,7 +684,11 @@
       <c r="B13" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="C13" s="8" t="n"/>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
@@ -693,7 +697,11 @@
       <c r="B14" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="C14" s="8" t="n"/>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
@@ -702,7 +710,11 @@
       <c r="B15" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="C15" s="8" t="n"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
@@ -711,7 +723,11 @@
       <c r="B16" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="n"/>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
@@ -720,7 +736,11 @@
       <c r="B17" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="C17" s="8" t="n"/>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
@@ -729,7 +749,11 @@
       <c r="B18" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="C18" s="8" t="n"/>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
@@ -738,7 +762,11 @@
       <c r="B19" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C19" s="8" t="n"/>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
@@ -747,7 +775,11 @@
       <c r="B20" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C20" s="8" t="n"/>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
@@ -756,7 +788,11 @@
       <c r="B21" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C21" s="8" t="n"/>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
@@ -765,7 +801,11 @@
       <c r="B22" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="C22" s="8" t="n"/>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
@@ -774,7 +814,11 @@
       <c r="B23" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C23" s="8" t="n"/>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/respuestas/encuesta1/1_.xlsx
+++ b/respuestas/encuesta1/1_.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G6" s="2" t="n"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F8" s="10" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
